--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Has2</t>
+  </si>
+  <si>
+    <t>Hmmr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Has2</t>
-  </si>
-  <si>
-    <t>Hmmr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +543,40 @@
         <v>70.633926</v>
       </c>
       <c r="I2">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957673</v>
       </c>
       <c r="J2">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957674</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.796303666666667</v>
+        <v>5.72629</v>
       </c>
       <c r="N2">
-        <v>5.388911</v>
+        <v>17.17887</v>
       </c>
       <c r="O2">
-        <v>0.146106549954462</v>
+        <v>0.3730133452890743</v>
       </c>
       <c r="P2">
-        <v>0.146106549954462</v>
+        <v>0.3730133452890744</v>
       </c>
       <c r="Q2">
-        <v>42.293326754954</v>
+        <v>134.82344803818</v>
       </c>
       <c r="R2">
-        <v>380.639940794586</v>
+        <v>1213.41103234362</v>
       </c>
       <c r="S2">
-        <v>0.1276470099152365</v>
+        <v>0.3321065650361471</v>
       </c>
       <c r="T2">
-        <v>0.1276470099152365</v>
+        <v>0.3321065650361472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>70.633926</v>
       </c>
       <c r="I3">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957673</v>
       </c>
       <c r="J3">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957674</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>3.811812</v>
       </c>
       <c r="O3">
-        <v>0.1033475409772062</v>
+        <v>0.08276776911013571</v>
       </c>
       <c r="P3">
-        <v>0.1033475409772062</v>
+        <v>0.08276776911013571</v>
       </c>
       <c r="Q3">
         <v>29.915916303768</v>
@@ -635,10 +635,10 @@
         <v>269.243246733912</v>
       </c>
       <c r="S3">
-        <v>0.09029030246723638</v>
+        <v>0.07369098141400254</v>
       </c>
       <c r="T3">
-        <v>0.09029030246723638</v>
+        <v>0.07369098141400256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +667,10 @@
         <v>70.633926</v>
       </c>
       <c r="I4">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957673</v>
       </c>
       <c r="J4">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.127002333333333</v>
+        <v>7.20253</v>
       </c>
       <c r="N4">
-        <v>24.381007</v>
+        <v>21.60759</v>
       </c>
       <c r="O4">
-        <v>0.6610286971125681</v>
+        <v>0.4691763445171162</v>
       </c>
       <c r="P4">
-        <v>0.6610286971125681</v>
+        <v>0.4691763445171162</v>
       </c>
       <c r="Q4">
-        <v>191.347360471498</v>
+        <v>169.58099034426</v>
       </c>
       <c r="R4">
-        <v>1722.126244243482</v>
+        <v>1526.22891309834</v>
       </c>
       <c r="S4">
-        <v>0.577512347535977</v>
+        <v>0.4177237788986937</v>
       </c>
       <c r="T4">
-        <v>0.577512347535977</v>
+        <v>0.4177237788986938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>70.633926</v>
       </c>
       <c r="I5">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957673</v>
       </c>
       <c r="J5">
-        <v>0.8736569986425735</v>
+        <v>0.8903342714957674</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.100567333333333</v>
+        <v>1.152010666666667</v>
       </c>
       <c r="N5">
-        <v>3.301702</v>
+        <v>3.456032</v>
       </c>
       <c r="O5">
-        <v>0.08951721195576376</v>
+        <v>0.07504254108367374</v>
       </c>
       <c r="P5">
-        <v>0.08951721195576376</v>
+        <v>0.07504254108367375</v>
       </c>
       <c r="Q5">
-        <v>25.912463860228</v>
+        <v>27.123678726848</v>
       </c>
       <c r="R5">
-        <v>233.212174742052</v>
+        <v>244.113108541632</v>
       </c>
       <c r="S5">
-        <v>0.07820733872412367</v>
+        <v>0.06681294614692385</v>
       </c>
       <c r="T5">
-        <v>0.07820733872412367</v>
+        <v>0.06681294614692386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.363417</v>
+        <v>2.900079666666667</v>
       </c>
       <c r="H6">
-        <v>10.090251</v>
+        <v>8.700239</v>
       </c>
       <c r="I6">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="J6">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.796303666666667</v>
+        <v>5.72629</v>
       </c>
       <c r="N6">
-        <v>5.388911</v>
+        <v>17.17887</v>
       </c>
       <c r="O6">
-        <v>0.146106549954462</v>
+        <v>0.3730133452890743</v>
       </c>
       <c r="P6">
-        <v>0.146106549954462</v>
+        <v>0.3730133452890744</v>
       </c>
       <c r="Q6">
-        <v>6.041718289628999</v>
+        <v>16.60669719443667</v>
       </c>
       <c r="R6">
-        <v>54.375464606661</v>
+        <v>149.46027474993</v>
       </c>
       <c r="S6">
-        <v>0.01823472716841797</v>
+        <v>0.04090678025292723</v>
       </c>
       <c r="T6">
-        <v>0.01823472716841797</v>
+        <v>0.04090678025292724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.363417</v>
+        <v>2.900079666666667</v>
       </c>
       <c r="H7">
-        <v>10.090251</v>
+        <v>8.700239</v>
       </c>
       <c r="I7">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="J7">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.811812</v>
       </c>
       <c r="O7">
-        <v>0.1033475409772062</v>
+        <v>0.08276776911013571</v>
       </c>
       <c r="P7">
-        <v>0.1033475409772062</v>
+        <v>0.08276776911013571</v>
       </c>
       <c r="Q7">
-        <v>4.273571093867999</v>
+        <v>3.684852824785333</v>
       </c>
       <c r="R7">
-        <v>38.46213984481199</v>
+        <v>33.163675423068</v>
       </c>
       <c r="S7">
-        <v>0.01289821855237573</v>
+        <v>0.009076787696133161</v>
       </c>
       <c r="T7">
-        <v>0.01289821855237573</v>
+        <v>0.009076787696133161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.363417</v>
+        <v>2.900079666666667</v>
       </c>
       <c r="H8">
-        <v>10.090251</v>
+        <v>8.700239</v>
       </c>
       <c r="I8">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="J8">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.127002333333333</v>
+        <v>7.20253</v>
       </c>
       <c r="N8">
-        <v>24.381007</v>
+        <v>21.60759</v>
       </c>
       <c r="O8">
-        <v>0.6610286971125681</v>
+        <v>0.4691763445171162</v>
       </c>
       <c r="P8">
-        <v>0.6610286971125681</v>
+        <v>0.4691763445171162</v>
       </c>
       <c r="Q8">
-        <v>27.334497806973</v>
+        <v>20.88791080155667</v>
       </c>
       <c r="R8">
-        <v>246.010480262757</v>
+        <v>187.99119721401</v>
       </c>
       <c r="S8">
-        <v>0.08249923050061296</v>
+        <v>0.05145256561842241</v>
       </c>
       <c r="T8">
-        <v>0.08249923050061296</v>
+        <v>0.05145256561842241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.363417</v>
+        <v>2.900079666666667</v>
       </c>
       <c r="H9">
-        <v>10.090251</v>
+        <v>8.700239</v>
       </c>
       <c r="I9">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="J9">
-        <v>0.1248043101017806</v>
+        <v>0.1096657285042327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.100567333333333</v>
+        <v>1.152010666666667</v>
       </c>
       <c r="N9">
-        <v>3.301702</v>
+        <v>3.456032</v>
       </c>
       <c r="O9">
-        <v>0.08951721195576376</v>
+        <v>0.07504254108367374</v>
       </c>
       <c r="P9">
-        <v>0.08951721195576376</v>
+        <v>0.07504254108367375</v>
       </c>
       <c r="Q9">
-        <v>3.701666878577999</v>
+        <v>3.340922710183111</v>
       </c>
       <c r="R9">
-        <v>33.31500190720199</v>
+        <v>30.068304391648</v>
       </c>
       <c r="S9">
-        <v>0.01117213388037396</v>
+        <v>0.008229594936749893</v>
       </c>
       <c r="T9">
-        <v>0.01117213388037396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.041467</v>
-      </c>
-      <c r="H10">
-        <v>0.124401</v>
-      </c>
-      <c r="I10">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="J10">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>1.796303666666667</v>
-      </c>
-      <c r="N10">
-        <v>5.388911</v>
-      </c>
-      <c r="O10">
-        <v>0.146106549954462</v>
-      </c>
-      <c r="P10">
-        <v>0.146106549954462</v>
-      </c>
-      <c r="Q10">
-        <v>0.07448732414566667</v>
-      </c>
-      <c r="R10">
-        <v>0.6703859173110001</v>
-      </c>
-      <c r="S10">
-        <v>0.0002248128708075115</v>
-      </c>
-      <c r="T10">
-        <v>0.0002248128708075115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.041467</v>
-      </c>
-      <c r="H11">
-        <v>0.124401</v>
-      </c>
-      <c r="I11">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="J11">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.270604</v>
-      </c>
-      <c r="N11">
-        <v>3.811812</v>
-      </c>
-      <c r="O11">
-        <v>0.1033475409772062</v>
-      </c>
-      <c r="P11">
-        <v>0.1033475409772062</v>
-      </c>
-      <c r="Q11">
-        <v>0.05268813606799999</v>
-      </c>
-      <c r="R11">
-        <v>0.474193224612</v>
-      </c>
-      <c r="S11">
-        <v>0.0001590199575941265</v>
-      </c>
-      <c r="T11">
-        <v>0.0001590199575941265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.041467</v>
-      </c>
-      <c r="H12">
-        <v>0.124401</v>
-      </c>
-      <c r="I12">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="J12">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.127002333333333</v>
-      </c>
-      <c r="N12">
-        <v>24.381007</v>
-      </c>
-      <c r="O12">
-        <v>0.6610286971125681</v>
-      </c>
-      <c r="P12">
-        <v>0.6610286971125681</v>
-      </c>
-      <c r="Q12">
-        <v>0.3370024057563333</v>
-      </c>
-      <c r="R12">
-        <v>3.033021651807</v>
-      </c>
-      <c r="S12">
-        <v>0.001017119075978066</v>
-      </c>
-      <c r="T12">
-        <v>0.001017119075978066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.041467</v>
-      </c>
-      <c r="H13">
-        <v>0.124401</v>
-      </c>
-      <c r="I13">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="J13">
-        <v>0.001538691255645832</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.100567333333333</v>
-      </c>
-      <c r="N13">
-        <v>3.301702</v>
-      </c>
-      <c r="O13">
-        <v>0.08951721195576376</v>
-      </c>
-      <c r="P13">
-        <v>0.08951721195576376</v>
-      </c>
-      <c r="Q13">
-        <v>0.04563722561133333</v>
-      </c>
-      <c r="R13">
-        <v>0.4107350305019999</v>
-      </c>
-      <c r="S13">
-        <v>0.0001377393512661282</v>
-      </c>
-      <c r="T13">
-        <v>0.0001377393512661282</v>
+        <v>0.008229594936749894</v>
       </c>
     </row>
   </sheetData>
